--- a/battle/wars/deep_3-1/apply.xlsx
+++ b/battle/wars/deep_3-1/apply.xlsx
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>airport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>team2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -541,7 +545,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -549,31 +553,39 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D7" s="2">
         <v>3</v>
       </c>
     </row>
